--- a/assign1/hw1/mis_graph.xlsx
+++ b/assign1/hw1/mis_graph.xlsx
@@ -1,70 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="174" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27360" windowHeight="14120" tabRatio="174"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>P-value</t>
-  </si>
-  <si>
     <t>Mis-classification</t>
   </si>
   <si>
     <t>entropy</t>
   </si>
+  <si>
+    <t>confidence-value</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt formatCode="GENERAL" numFmtId="164"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="2"/>
-      <sz val="13"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="2"/>
-      <sz val="9"/>
     </font>
   </fonts>
   <fills count="2">
@@ -76,7 +52,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -84,42 +60,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
-    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
-    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
-    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
-    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -178,17 +129,27 @@
       <rgbColor rgb="00993366"/>
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="18"/>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:tx>
         <c:rich>
           <a:bodyPr/>
@@ -198,24 +159,25 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1300"/>
+              <a:rPr lang="en-US" sz="1300"/>
               <a:t>Accuracy distribution</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
+      <c:overlay val="1"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
             <a:ln w="28800">
               <a:solidFill>
                 <a:srgbClr val="004586"/>
@@ -232,7 +194,7 @@
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>P-value</c:v>
+                  <c:v>confidence-value</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -277,7 +239,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>NaN</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.5428</c:v>
@@ -315,17 +277,15 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="1"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
             <a:ln w="28800">
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="FF420E"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -339,7 +299,7 @@
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>P-value</c:v>
+                  <c:v>confidence-value</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -384,7 +344,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>NaN</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.5428</c:v>
@@ -422,18 +382,38 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="1"/>
         </c:ser>
-        <c:marker val="0"/>
-        <c:axId val="21879501"/>
-        <c:axId val="81133884"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2140300856"/>
+        <c:axId val="-2140294968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="21879501"/>
+        <c:axId val="-2140300856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B3B3B3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
-          <c:layout/>
           <c:tx>
             <c:rich>
               <a:bodyPr/>
@@ -443,46 +423,42 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="900"/>
+                  <a:rPr lang="en-US" sz="900"/>
                   <a:t>p-value</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
+          <c:overlay val="1"/>
         </c:title>
-        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2140294968"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2140294968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln>
               <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
+                <a:srgbClr val="B3B3B3"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81133884"/>
-        <c:crosses val="autoZero"/>
-        <c:lblAlgn val="ctr"/>
-        <c:auto val="1"/>
-        <c:lblOffset val="100"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="81133884"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
         <c:title>
-          <c:layout/>
           <c:tx>
             <c:rich>
               <a:bodyPr/>
@@ -492,60 +468,382 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="900"/>
+                  <a:rPr lang="en-US" sz="900"/>
                   <a:t>accuracy</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
+          <c:overlay val="1"/>
         </c:title>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="21879501"/>
+        <c:crossAx val="-2140300856"/>
         <c:crosses val="autoZero"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
+            <a:srgbClr val="B3B3B3"/>
           </a:solidFill>
         </a:ln>
       </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:spPr/>
+      <c:layout/>
+      <c:overlay val="1"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>DC3</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> compare</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.5428</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6286</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6286</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6286</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6571</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7143</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7143</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7143</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.7143</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.7143</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.7143</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.5428</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8857</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:hiLowLines/>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2125154424"/>
+        <c:axId val="-2125194632"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2125154424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>confidence</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2125194632"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2125194632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>accuracy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2125154424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -559,14 +857,14 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>131400</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name=""/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3073320" y="36000"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -576,216 +874,555 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="C12" activeCellId="0" pane="topLeft" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5764705882353"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.1058823529412"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5764705882353"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:3" ht="12">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
-        <v>2</v>
-      </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="2">
-      <c r="A2" s="0" t="n">
+    <row r="2" spans="1:3" ht="12">
+      <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="0" t="n">
-        <v>0.5428</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>0.5428</v>
+      <c r="B2">
+        <v>0.54279999999999995</v>
+      </c>
+      <c r="C2">
+        <v>0.54279999999999995</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="3">
-      <c r="A3" s="0" t="n">
+    <row r="3" spans="1:3" ht="12">
+      <c r="A3">
         <v>10</v>
       </c>
-      <c r="B3" s="0" t="n">
-        <v>0.6286</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>0.8857</v>
+      <c r="B3">
+        <v>0.62860000000000005</v>
+      </c>
+      <c r="C3">
+        <v>0.88570000000000004</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
-      <c r="A4" s="0" t="n">
+    <row r="4" spans="1:3" ht="12">
+      <c r="A4">
         <v>20</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <v>0.6286</v>
-      </c>
-      <c r="C4" s="0" t="n">
+      <c r="B4">
+        <v>0.62860000000000005</v>
+      </c>
+      <c r="C4">
         <v>0.8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
-      <c r="A5" s="0" t="n">
+    <row r="5" spans="1:3" ht="12">
+      <c r="A5">
         <v>30</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>0.6286</v>
-      </c>
-      <c r="C5" s="0" t="n">
+      <c r="B5">
+        <v>0.62860000000000005</v>
+      </c>
+      <c r="C5">
         <v>0.8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
-      <c r="A6" s="0" t="n">
+    <row r="6" spans="1:3" ht="12">
+      <c r="A6">
         <v>40</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>0.6571</v>
-      </c>
-      <c r="C6" s="0" t="n">
+      <c r="B6">
+        <v>0.65710000000000002</v>
+      </c>
+      <c r="C6">
         <v>0.8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
-      <c r="A7" s="0" t="n">
+    <row r="7" spans="1:3" ht="12">
+      <c r="A7">
         <v>50</v>
       </c>
-      <c r="B7" s="0" t="n">
-        <v>0.7143</v>
-      </c>
-      <c r="C7" s="0" t="n">
+      <c r="B7">
+        <v>0.71430000000000005</v>
+      </c>
+      <c r="C7">
         <v>0.8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
-      <c r="A8" s="0" t="n">
+    <row r="8" spans="1:3" ht="12">
+      <c r="A8">
         <v>60</v>
       </c>
-      <c r="B8" s="0" t="n">
-        <v>0.7143</v>
-      </c>
-      <c r="C8" s="0" t="n">
+      <c r="B8">
+        <v>0.71430000000000005</v>
+      </c>
+      <c r="C8">
         <v>0.8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
-      <c r="A9" s="0" t="n">
+    <row r="9" spans="1:3" ht="12">
+      <c r="A9">
         <v>70</v>
       </c>
-      <c r="B9" s="0" t="n">
-        <v>0.7143</v>
-      </c>
-      <c r="C9" s="0" t="n">
+      <c r="B9">
+        <v>0.71430000000000005</v>
+      </c>
+      <c r="C9">
         <v>0.8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
-      <c r="A10" s="0" t="n">
+    <row r="10" spans="1:3" ht="12">
+      <c r="A10">
         <v>80</v>
       </c>
-      <c r="B10" s="0" t="n">
-        <v>0.7143</v>
-      </c>
-      <c r="C10" s="0" t="n">
+      <c r="B10">
+        <v>0.71430000000000005</v>
+      </c>
+      <c r="C10">
         <v>0.8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
-      <c r="A11" s="0" t="n">
+    <row r="11" spans="1:3" ht="12">
+      <c r="A11">
         <v>90</v>
       </c>
-      <c r="B11" s="0" t="n">
-        <v>0.7143</v>
-      </c>
-      <c r="C11" s="0" t="n">
+      <c r="B11">
+        <v>0.71430000000000005</v>
+      </c>
+      <c r="C11">
         <v>0.8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
-      <c r="A12" s="0" t="n">
+    <row r="12" spans="1:3" ht="12">
+      <c r="A12">
         <v>100</v>
       </c>
-      <c r="B12" s="0" t="n">
-        <v>0.7143</v>
-      </c>
-      <c r="C12" s="0" t="n">
+      <c r="B12">
+        <v>0.71430000000000005</v>
+      </c>
+      <c r="C12">
         <v>0.8</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="true" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5764705882353"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5764705882353"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>